--- a/autotest/Web/static/download/uiautotest.xlsx
+++ b/autotest/Web/static/download/uiautotest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>id</t>
   </si>
@@ -39,6 +39,12 @@
     <t>https://www.baidu.com/</t>
   </si>
   <si>
+    <t>asserttitle</t>
+  </si>
+  <si>
+    <t>百度一下</t>
+  </si>
+  <si>
     <t>sendkeys</t>
   </si>
   <si>
@@ -52,6 +58,15 @@
   </si>
   <si>
     <t>//*[@id='su']</t>
+  </si>
+  <si>
+    <t>百度搜索</t>
+  </si>
+  <si>
+    <t>gettext</t>
+  </si>
+  <si>
+    <t>//*[@id="container"]/div[2]/div/div[2]/text()</t>
   </si>
 </sst>
 </file>
@@ -195,23 +210,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +247,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -244,30 +271,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -280,48 +295,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,13 +355,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,54 +422,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,142 +540,142 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1018,17 +1033,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
-    <col min="3" max="4" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="50.375" customWidth="1"/>
+    <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1068,38 +1084,61 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
-      <formula1>"get,sendkeys,click,submit,size,gettext,isdisplayed"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B4 B1:B2 B5:B1048576">
+      <formula1>"get,sendkeys,click,gettext,getattribute,asserttitle,element_displayed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
